--- a/src/test/resources/testdata/FlowInterface.xlsx
+++ b/src/test/resources/testdata/FlowInterface.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Appium - CopyPractice\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\AppiumNew\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E2CC0-3F3E-49C2-BCA7-BED8E19FCEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBECFEF-4C36-463B-9012-08D58F54D31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -137,13 +137,22 @@
   </si>
   <si>
     <t>smoke2</t>
+  </si>
+  <si>
+    <t>Suite Name</t>
+  </si>
+  <si>
+    <t>Suite1</t>
+  </si>
+  <si>
+    <t>Suite2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +164,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,243 +557,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77993-C7EC-411C-A1DE-F48C8A198BE7}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="52.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="52.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F11">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -787,7 +837,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{35B026BD-6EE7-48A0-BC42-F6500A128D12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{35B026BD-6EE7-48A0-BC42-F6500A128D12}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -909,12 +959,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1151,17 +1200,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1186,11 +1238,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/FlowInterface.xlsx
+++ b/src/test/resources/testdata/FlowInterface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\AppiumNew\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBECFEF-4C36-463B-9012-08D58F54D31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF73298C-13F5-47B7-BEA3-B251168B06E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -52,27 +52,15 @@
     <t>TestCaseSheet</t>
   </si>
   <si>
-    <t>Login functionality</t>
-  </si>
-  <si>
     <t>Scenario2</t>
   </si>
   <si>
-    <t>Verify login functionality A</t>
-  </si>
-  <si>
-    <t>Product.xlsx</t>
-  </si>
-  <si>
     <t>Verify login functionality</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Product1.xlsx</t>
-  </si>
-  <si>
     <t>Swagger API Call</t>
   </si>
   <si>
@@ -91,28 +79,7 @@
     <t>smoke</t>
   </si>
   <si>
-    <t>As a user of the Uber mobile app I want to be able to log in</t>
-  </si>
-  <si>
-    <t>Mobile.xlsx</t>
-  </si>
-  <si>
-    <t>Ecom App Login</t>
-  </si>
-  <si>
-    <t>As a user of the Ecom mobile app I want to be able to log in</t>
-  </si>
-  <si>
-    <t>2-As a user of the Ecom mobile app I want to be able to log in</t>
-  </si>
-  <si>
-    <t>Ecom App Login2</t>
-  </si>
-  <si>
     <t>ecom</t>
-  </si>
-  <si>
-    <t>ecom2</t>
   </si>
   <si>
     <t>Mobile1.xlsx</t>
@@ -557,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77993-C7EC-411C-A1DE-F48C8A198BE7}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,7 +542,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -598,237 +565,136 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G11">
+  <conditionalFormatting sqref="G2:G7">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -837,7 +703,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{35B026BD-6EE7-48A0-BC42-F6500A128D12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{35B026BD-6EE7-48A0-BC42-F6500A128D12}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -884,19 +750,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -904,19 +770,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -924,33 +790,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/FlowInterface.xlsx
+++ b/src/test/resources/testdata/FlowInterface.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\AppiumNew\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF73298C-13F5-47B7-BEA3-B251168B06E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACAB1FD-C011-4141-A380-4B37A600F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -113,6 +113,57 @@
   </si>
   <si>
     <t>Suite2</t>
+  </si>
+  <si>
+    <t>CE Ecom App</t>
+  </si>
+  <si>
+    <t>This Feature will verify TC1</t>
+  </si>
+  <si>
+    <t>As a User I should verify all the home page elements</t>
+  </si>
+  <si>
+    <t>Mobile2.xlsx</t>
+  </si>
+  <si>
+    <t>E2E_1</t>
+  </si>
+  <si>
+    <t>This Feature will verify TC2</t>
+  </si>
+  <si>
+    <t>E2E_2</t>
+  </si>
+  <si>
+    <t>As a User I should able to login</t>
+  </si>
+  <si>
+    <t>This Feature will verify TC3</t>
+  </si>
+  <si>
+    <t>E2E_3</t>
+  </si>
+  <si>
+    <t>As a User I should able to verify a element</t>
+  </si>
+  <si>
+    <t>This Feature will verify TC4</t>
+  </si>
+  <si>
+    <t>E2E_4</t>
+  </si>
+  <si>
+    <t>As a User I should able to verify all element in Sign Up page</t>
+  </si>
+  <si>
+    <t>This Feature will verify TC5</t>
+  </si>
+  <si>
+    <t>E2E_5</t>
+  </si>
+  <si>
+    <t>As a User I should able to enter data to all element in Sign Up page</t>
   </si>
 </sst>
 </file>
@@ -524,18 +575,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77993-C7EC-411C-A1DE-F48C8A198BE7}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.36328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="52.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.81640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.26953125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -583,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -606,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -629,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -649,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -669,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -689,12 +741,142 @@
         <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G7">
+  <conditionalFormatting sqref="G2:G17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -703,7 +885,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{35B026BD-6EE7-48A0-BC42-F6500A128D12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17" xr:uid="{35B026BD-6EE7-48A0-BC42-F6500A128D12}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -825,11 +1007,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1066,20 +1249,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1104,9 +1284,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>